--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW45.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +967,7 @@
         <v>0.9985870440767033</v>
       </c>
       <c r="I13">
-        <v>0.9937878340704578</v>
+        <v>0.9937878340704579</v>
       </c>
       <c r="J13">
         <v>0.9989293515472001</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9971143738913159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9975163270514803</v>
+      </c>
+      <c r="D16">
+        <v>0.9929265524063458</v>
+      </c>
+      <c r="E16">
+        <v>0.9988235294117647</v>
+      </c>
+      <c r="F16">
+        <v>0.9975163270514803</v>
+      </c>
+      <c r="G16">
+        <v>0.9983006600036716</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.9976470588235294</v>
+      </c>
+      <c r="J16">
+        <v>0.9929265524063458</v>
+      </c>
+      <c r="K16">
+        <v>0.9958750409090552</v>
+      </c>
+      <c r="L16">
+        <v>0.9966956839802676</v>
+      </c>
+      <c r="M16">
+        <v>0.9975356879494653</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9975163270514803</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
@@ -970,7 +970,7 @@
         <v>0.9985870440767033</v>
       </c>
       <c r="I13">
-        <v>0.9937878340704579</v>
+        <v>0.9937878340704578</v>
       </c>
       <c r="J13">
         <v>0.9989293515472001</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9975039999999989</v>
+        <v>0.9975163270514803</v>
       </c>
       <c r="D10">
-        <v>0.9883280000000004</v>
+        <v>0.9929265524063458</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9988235294117647</v>
       </c>
       <c r="F10">
-        <v>0.9975039999999989</v>
+        <v>0.9975163270514803</v>
       </c>
       <c r="G10">
-        <v>0.9983359999999993</v>
+        <v>0.9983006600036716</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.9976470588235294</v>
       </c>
       <c r="J10">
-        <v>0.9883280000000004</v>
+        <v>0.9929265524063458</v>
       </c>
       <c r="K10">
-        <v>0.9941640000000003</v>
+        <v>0.9958750409090552</v>
       </c>
       <c r="L10">
-        <v>0.9958339999999996</v>
+        <v>0.9966956839802676</v>
       </c>
       <c r="M10">
-        <v>0.9973613333333331</v>
+        <v>0.9975356879494653</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,19 +879,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9965128889843057</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>0.9964745346458684</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9965128889843057</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.9953745366004162</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -891,16 +900,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.98</v>
+        <v>0.9964745346458684</v>
       </c>
       <c r="K11">
-        <v>0.99</v>
+        <v>0.9982372673229343</v>
       </c>
       <c r="L11">
-        <v>0.995</v>
+        <v>0.9973750781536199</v>
       </c>
       <c r="M11">
-        <v>0.9966666666666667</v>
+        <v>0.9980603267050983</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9992324802560002</v>
+        <v>0.9965062734929344</v>
       </c>
       <c r="D12">
-        <v>0.9882299580416009</v>
+        <v>0.9965447663052212</v>
       </c>
       <c r="E12">
-        <v>0.9986692104191994</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.9992324802560002</v>
+        <v>0.9965062734929344</v>
       </c>
       <c r="G12">
-        <v>0.9981859385344</v>
+        <v>0.995356727983477</v>
       </c>
       <c r="H12">
-        <v>0.9993626025984018</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9975945312255989</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9882299580416009</v>
+        <v>0.9965447663052212</v>
       </c>
       <c r="K12">
-        <v>0.9934495842304001</v>
+        <v>0.9982723831526106</v>
       </c>
       <c r="L12">
-        <v>0.9963410322432003</v>
+        <v>0.9973893283227724</v>
       </c>
       <c r="M12">
-        <v>0.9968791201792002</v>
+        <v>0.9980679612969388</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9981472497059053</v>
+        <v>0.9965140721589814</v>
       </c>
       <c r="D13">
-        <v>0.9989293515472001</v>
+        <v>0.9964890192639335</v>
       </c>
       <c r="E13">
-        <v>0.9962099393971589</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.9981472497059053</v>
+        <v>0.9965140721589814</v>
       </c>
       <c r="G13">
-        <v>0.9967250324794205</v>
+        <v>0.9953656277827446</v>
       </c>
       <c r="H13">
-        <v>0.9985870440767033</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937878340704578</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9989293515472001</v>
+        <v>0.9964890192639335</v>
       </c>
       <c r="K13">
-        <v>0.9975696454721794</v>
+        <v>0.9982445096319668</v>
       </c>
       <c r="L13">
-        <v>0.9978584475890424</v>
+        <v>0.9973792908954741</v>
       </c>
       <c r="M13">
-        <v>0.9970644085461412</v>
+        <v>0.9980614532009433</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9979231908498345</v>
+        <v>0.9975039999999989</v>
       </c>
       <c r="D14">
-        <v>0.9986046511627907</v>
+        <v>0.9883280000000004</v>
       </c>
       <c r="E14">
-        <v>0.9947059819900204</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.9979231908498345</v>
+        <v>0.9975039999999989</v>
       </c>
       <c r="G14">
-        <v>0.9964139249229853</v>
+        <v>0.9983359999999993</v>
       </c>
       <c r="H14">
-        <v>0.9988381213999441</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9935760165628401</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9986046511627907</v>
+        <v>0.9883280000000004</v>
       </c>
       <c r="K14">
-        <v>0.9966553165764056</v>
+        <v>0.9941640000000003</v>
       </c>
       <c r="L14">
-        <v>0.9972892537131202</v>
+        <v>0.9958339999999996</v>
       </c>
       <c r="M14">
-        <v>0.9966769811480692</v>
+        <v>0.9973613333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9976509728865289</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.9992225252278324</v>
+        <v>0.98</v>
       </c>
       <c r="E15">
-        <v>0.9965128213365479</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.9976509728865289</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9977770030111814</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9978926920620124</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9936302288237914</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9992225252278324</v>
+        <v>0.98</v>
       </c>
       <c r="K15">
-        <v>0.9978676732821902</v>
+        <v>0.99</v>
       </c>
       <c r="L15">
-        <v>0.9977593230843596</v>
+        <v>0.995</v>
       </c>
       <c r="M15">
-        <v>0.9971143738913159</v>
+        <v>0.9966666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9975163270514803</v>
+        <v>0.9992324802560002</v>
       </c>
       <c r="D16">
-        <v>0.9929265524063458</v>
+        <v>0.9882299580416009</v>
       </c>
       <c r="E16">
-        <v>0.9988235294117647</v>
+        <v>0.9986692104191994</v>
       </c>
       <c r="F16">
-        <v>0.9975163270514803</v>
+        <v>0.9992324802560002</v>
       </c>
       <c r="G16">
-        <v>0.9983006600036716</v>
+        <v>0.9981859385344</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.9993626025984018</v>
       </c>
       <c r="I16">
-        <v>0.9976470588235294</v>
+        <v>0.9975945312255989</v>
       </c>
       <c r="J16">
-        <v>0.9929265524063458</v>
+        <v>0.9882299580416009</v>
       </c>
       <c r="K16">
-        <v>0.9958750409090552</v>
+        <v>0.9934495842304001</v>
       </c>
       <c r="L16">
-        <v>0.9966956839802676</v>
+        <v>0.9963410322432003</v>
       </c>
       <c r="M16">
-        <v>0.9975356879494653</v>
+        <v>0.9968791201792002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9981472497059053</v>
+      </c>
+      <c r="D17">
+        <v>0.9989293515472001</v>
+      </c>
+      <c r="E17">
+        <v>0.9962099393971589</v>
+      </c>
+      <c r="F17">
+        <v>0.9981472497059053</v>
+      </c>
+      <c r="G17">
+        <v>0.9967250324794205</v>
+      </c>
+      <c r="H17">
+        <v>0.9985870440767033</v>
+      </c>
+      <c r="I17">
+        <v>0.9937878340704579</v>
+      </c>
+      <c r="J17">
+        <v>0.9989293515472001</v>
+      </c>
+      <c r="K17">
+        <v>0.9975696454721794</v>
+      </c>
+      <c r="L17">
+        <v>0.9978584475890424</v>
+      </c>
+      <c r="M17">
+        <v>0.9970644085461412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9979231908498345</v>
+      </c>
+      <c r="D18">
+        <v>0.9986046511627907</v>
+      </c>
+      <c r="E18">
+        <v>0.9947059819900204</v>
+      </c>
+      <c r="F18">
+        <v>0.9979231908498345</v>
+      </c>
+      <c r="G18">
+        <v>0.9964139249229853</v>
+      </c>
+      <c r="H18">
+        <v>0.9988381213999441</v>
+      </c>
+      <c r="I18">
+        <v>0.9935760165628401</v>
+      </c>
+      <c r="J18">
+        <v>0.9986046511627907</v>
+      </c>
+      <c r="K18">
+        <v>0.9966553165764056</v>
+      </c>
+      <c r="L18">
+        <v>0.9972892537131202</v>
+      </c>
+      <c r="M18">
+        <v>0.9966769811480692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9976509728865289</v>
+      </c>
+      <c r="D19">
+        <v>0.9992225252278324</v>
+      </c>
+      <c r="E19">
+        <v>0.9965128213365479</v>
+      </c>
+      <c r="F19">
+        <v>0.9976509728865289</v>
+      </c>
+      <c r="G19">
+        <v>0.9977770030111814</v>
+      </c>
+      <c r="H19">
+        <v>0.9978926920620124</v>
+      </c>
+      <c r="I19">
+        <v>0.9936302288237914</v>
+      </c>
+      <c r="J19">
+        <v>0.9992225252278324</v>
+      </c>
+      <c r="K19">
+        <v>0.9978676732821902</v>
+      </c>
+      <c r="L19">
+        <v>0.9977593230843596</v>
+      </c>
+      <c r="M19">
+        <v>0.9971143738913159</v>
       </c>
     </row>
   </sheetData>
